--- a/Tests/Validation/Barley/Observations/RS95_96_Biomass.xlsx
+++ b/Tests/Validation/Barley/Observations/RS95_96_Biomass.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\ApsimX\Prototypes\Barley\Observations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ApsimX\Tests\Validation\Barley\Observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99BD446-BE7A-4917-86D6-524DD71D44AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="22020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>Barley.Grain.Number</t>
-  </si>
-  <si>
-    <t>Barley.Structure.MainStemPopn</t>
   </si>
   <si>
     <t>RS1995_96WaterFullldroughtN0</t>
@@ -136,11 +134,14 @@
   <si>
     <t>HarvestRipe</t>
   </si>
+  <si>
+    <t>Barley.Leaf.MainStemPopulation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
@@ -466,20 +467,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GM197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I129" workbookViewId="0">
-      <selection activeCell="O199" sqref="O199"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,10 +521,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -706,9 +707,9 @@
       <c r="GL1" s="2"/>
       <c r="GM1" s="2"/>
     </row>
-    <row r="2" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>35017</v>
@@ -720,19 +721,19 @@
         <v>20.6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5">
         <v>23.350000000000005</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5">
         <v>23.350000000000005</v>
@@ -741,13 +742,13 @@
         <v>0.49722</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -931,9 +932,9 @@
       <c r="GL2" s="2"/>
       <c r="GM2" s="2"/>
     </row>
-    <row r="3" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>35017</v>
@@ -945,19 +946,19 @@
         <v>28.5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5">
         <v>32.35</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5">
         <v>32.35</v>
@@ -966,13 +967,13 @@
         <v>0.70062999999999998</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1156,9 +1157,9 @@
       <c r="GL3" s="1"/>
       <c r="GM3" s="1"/>
     </row>
-    <row r="4" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>35017</v>
@@ -1170,19 +1171,19 @@
         <v>24.5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5">
         <v>27.8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="5">
         <v>27.8</v>
@@ -1191,13 +1192,13 @@
         <v>0.60483500000000001</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1381,9 +1382,9 @@
       <c r="GL4" s="4"/>
       <c r="GM4" s="4"/>
     </row>
-    <row r="5" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>35017</v>
@@ -1395,19 +1396,19 @@
         <v>25.450000000000003</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5">
         <v>27.95</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="5">
         <v>27.95</v>
@@ -1416,13 +1417,13 @@
         <v>0.58514500000000003</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -1606,9 +1607,9 @@
       <c r="GL5" s="5"/>
       <c r="GM5" s="5"/>
     </row>
-    <row r="6" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>35017</v>
@@ -1620,19 +1621,19 @@
         <v>13.1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5">
         <v>14.75</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="5">
         <v>14.75</v>
@@ -1641,13 +1642,13 @@
         <v>0.31365500000000002</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1831,9 +1832,9 @@
       <c r="GL6" s="5"/>
       <c r="GM6" s="5"/>
     </row>
-    <row r="7" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>35017</v>
@@ -1845,19 +1846,19 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="5">
         <v>21.5</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="5">
         <v>21.5</v>
@@ -1866,13 +1867,13 @@
         <v>0.39742</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -2056,9 +2057,9 @@
       <c r="GL7" s="5"/>
       <c r="GM7" s="5"/>
     </row>
-    <row r="8" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>35017</v>
@@ -2070,19 +2071,19 @@
         <v>23.85</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <v>26.35</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="5">
         <v>26.35</v>
@@ -2091,13 +2092,13 @@
         <v>0.49055500000000002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -2281,9 +2282,9 @@
       <c r="GL8" s="5"/>
       <c r="GM8" s="5"/>
     </row>
-    <row r="9" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>35017</v>
@@ -2295,19 +2296,19 @@
         <v>27.5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="5">
         <v>30.55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="5">
         <v>30.55</v>
@@ -2316,13 +2317,13 @@
         <v>0.57748500000000003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -2506,48 +2507,48 @@
       <c r="GL9" s="5"/>
       <c r="GM9" s="5"/>
     </row>
-    <row r="10" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>35024</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="5">
         <v>7.1324999999999985</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -2731,48 +2732,48 @@
       <c r="GL10" s="5"/>
       <c r="GM10" s="5"/>
     </row>
-    <row r="11" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>35024</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="5">
         <v>7.1949999999999985</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -2956,48 +2957,48 @@
       <c r="GL11" s="5"/>
       <c r="GM11" s="5"/>
     </row>
-    <row r="12" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>35024</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="5">
         <v>8.1724999999999994</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -3181,48 +3182,48 @@
       <c r="GL12" s="5"/>
       <c r="GM12" s="5"/>
     </row>
-    <row r="13" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4">
         <v>35024</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="5">
         <v>8.8125</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -3406,48 +3407,48 @@
       <c r="GL13" s="5"/>
       <c r="GM13" s="5"/>
     </row>
-    <row r="14" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>35024</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="5">
         <v>7.0049999999999999</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -3631,48 +3632,48 @@
       <c r="GL14" s="5"/>
       <c r="GM14" s="5"/>
     </row>
-    <row r="15" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>35024</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5">
         <v>6.857499999999999</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -3856,48 +3857,48 @@
       <c r="GL15" s="5"/>
       <c r="GM15" s="5"/>
     </row>
-    <row r="16" spans="1:195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:195" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>35024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="5">
         <v>5.2974999999999994</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -4081,581 +4082,581 @@
       <c r="GL16" s="5"/>
       <c r="GM16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4">
         <v>35024</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="5">
         <v>7.5299999999999994</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>35024</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="5">
         <v>7.580000000000001</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>35024</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="5">
         <v>7.6624999999999996</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4">
         <v>35024</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="5">
         <v>8.4175000000000004</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4">
         <v>35024</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="5">
         <v>6.9800000000000013</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>35024</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="5">
         <v>5.125</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4">
         <v>35024</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="5">
         <v>6.2550000000000008</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4">
         <v>35024</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="5">
         <v>8.1925000000000008</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4">
         <v>35024</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" s="5">
         <v>6.1100000000000012</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4">
         <v>35024</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="5">
         <v>5.7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="4">
         <v>35024</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" s="5">
         <v>4.8224999999999998</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4">
         <v>35024</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" s="5">
         <v>6.2799999999999994</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4">
         <v>35024</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" s="5">
         <v>4.8624999999999998</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4">
         <v>35031</v>
@@ -4667,13 +4668,13 @@
         <v>77.320602775009732</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="5">
         <v>143.27398088119929</v>
@@ -4688,18 +4689,18 @@
         <v>1.81846223745048</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4">
         <v>35031</v>
@@ -4711,13 +4712,13 @@
         <v>92.533240452933143</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="5">
         <v>164.19326577910334</v>
@@ -4732,18 +4733,18 @@
         <v>2.2502867706636263</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4">
         <v>35031</v>
@@ -4755,13 +4756,13 @@
         <v>100.37355040853292</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="5">
         <v>183.84990765897442</v>
@@ -4776,18 +4777,18 @@
         <v>2.1989332926344467</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4">
         <v>35031</v>
@@ -4799,13 +4800,13 @@
         <v>101.37139711605812</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="5">
         <v>198.39142861288451</v>
@@ -4820,18 +4821,18 @@
         <v>2.3852552089399048</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4">
         <v>35031</v>
@@ -4843,13 +4844,13 @@
         <v>74.27410422652332</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="5">
         <v>137.75672747127152</v>
@@ -4864,18 +4865,18 @@
         <v>1.7495922681926825</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4">
         <v>35031</v>
@@ -4887,13 +4888,13 @@
         <v>79.935455824177083</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="5">
         <v>137.02538630551481</v>
@@ -4908,18 +4909,18 @@
         <v>1.881994325291743</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="4">
         <v>35031</v>
@@ -4931,13 +4932,13 @@
         <v>70.39952598267331</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="5">
         <v>126.43305090083899</v>
@@ -4952,18 +4953,18 @@
         <v>1.5872622193531982</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4">
         <v>35031</v>
@@ -4975,13 +4976,13 @@
         <v>67.672389944000685</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" s="5">
         <v>121.07582457589467</v>
@@ -4996,18 +4997,18 @@
         <v>1.5685019806263079</v>
       </c>
       <c r="L37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B38" s="4">
         <v>35031</v>
@@ -5019,13 +5020,13 @@
         <v>86.68909663176052</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="5">
         <v>157.18755155239941</v>
@@ -5040,18 +5041,18 @@
         <v>2.0822518209977838</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="4">
         <v>35031</v>
@@ -5063,13 +5064,13 @@
         <v>96.205631653879593</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" s="5">
         <v>189.11130183539282</v>
@@ -5084,18 +5085,18 @@
         <v>2.3462114258844986</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4">
         <v>35031</v>
@@ -5107,13 +5108,13 @@
         <v>80.144754413139424</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" s="5">
         <v>151.35979102236735</v>
@@ -5128,18 +5129,18 @@
         <v>1.7463562178503862</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="4">
         <v>35031</v>
@@ -5151,13 +5152,13 @@
         <v>94.753175635148921</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" s="5">
         <v>174.21280243791699</v>
@@ -5172,18 +5173,18 @@
         <v>1.1463821159972978</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4">
         <v>35031</v>
@@ -5195,13 +5196,13 @@
         <v>51.299649444346905</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="5">
         <v>83.880566878616492</v>
@@ -5216,18 +5217,18 @@
         <v>1.0639172593567328</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="4">
         <v>35031</v>
@@ -5239,13 +5240,13 @@
         <v>77.801720199559526</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" s="5">
         <v>126.02101481515501</v>
@@ -5260,18 +5261,18 @@
         <v>1.5816165262016564</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="4">
         <v>35031</v>
@@ -5283,13 +5284,13 @@
         <v>95.567987282451938</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" s="5">
         <v>161.73411878135116</v>
@@ -5304,18 +5305,18 @@
         <v>1.9134592077114452</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="4">
         <v>35031</v>
@@ -5327,13 +5328,13 @@
         <v>66.20111672711559</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="5">
         <v>110.73636496054601</v>
@@ -5348,18 +5349,18 @@
         <v>1.3430907969032377</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4">
         <v>35031</v>
@@ -5371,13 +5372,13 @@
         <v>57.204581298029368</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="5">
         <v>91.893016662862351</v>
@@ -5392,18 +5393,18 @@
         <v>1.256645585634939</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="4">
         <v>35031</v>
@@ -5415,13 +5416,13 @@
         <v>67.494698406721668</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="5">
         <v>104.64195866002194</v>
@@ -5436,18 +5437,18 @@
         <v>1.4679387374597503</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="4">
         <v>35031</v>
@@ -5459,13 +5460,13 @@
         <v>74.028845375120937</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="5">
         <v>121.31604851004457</v>
@@ -5480,18 +5481,18 @@
         <v>1.5523284567775817</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="4">
         <v>35031</v>
@@ -5503,13 +5504,13 @@
         <v>82.33041105472995</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="5">
         <v>129.13897911339109</v>
@@ -5524,898 +5525,898 @@
         <v>1.7111574740332778</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="4">
         <v>35038</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J50" s="5">
         <v>23.022500000000001</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="4">
         <v>35038</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J51" s="5">
         <v>23.190000000000005</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="4">
         <v>35038</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52" s="5">
         <v>29.882500000000004</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="4">
         <v>35038</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J53" s="5">
         <v>27.425000000000001</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="4">
         <v>35038</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J54" s="5">
         <v>19.414999999999999</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" s="4">
         <v>35038</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J55" s="5">
         <v>23.85</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" s="4">
         <v>35038</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J56" s="5">
         <v>23.537500000000001</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="4">
         <v>35038</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J57" s="5">
         <v>24.585000000000001</v>
       </c>
       <c r="K57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B58" s="4">
         <v>35038</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J58" s="5">
         <v>16.9925</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="4">
         <v>35038</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J59" s="5">
         <v>26.024999999999999</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="4">
         <v>35038</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J60" s="5">
         <v>27.805</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="4">
         <v>35038</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J61" s="5">
         <v>25.38</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="4">
         <v>35038</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J62" s="5">
         <v>16.635000000000002</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="4">
         <v>35038</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J63" s="5">
         <v>20.125</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="4">
         <v>35038</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J64" s="5">
         <v>23.717500000000001</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="4">
         <v>35038</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J65" s="5">
         <v>19.164999999999999</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="4">
         <v>35038</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J66" s="5">
         <v>18.297499999999999</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4">
         <v>35038</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J67" s="5">
         <v>16.8</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="4">
         <v>35038</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J68" s="5">
         <v>25.56</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="4">
         <v>35038</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J69" s="5">
         <v>19.8</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="4">
         <v>35045</v>
@@ -6427,13 +6428,13 @@
         <v>73.210672962283212</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" s="5">
         <v>371.53943306369757</v>
@@ -6448,18 +6449,18 @@
         <v>0.98435404663125192</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="4">
         <v>35045</v>
@@ -6471,13 +6472,13 @@
         <v>101.78812024845914</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" s="5">
         <v>425.63871621459583</v>
@@ -6492,18 +6493,18 @@
         <v>1.3279468545099169</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="4">
         <v>35045</v>
@@ -6515,13 +6516,13 @@
         <v>108.61277029369226</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" s="5">
         <v>445.51197241181472</v>
@@ -6536,18 +6537,18 @@
         <v>1.2683217376492666</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" s="4">
         <v>35045</v>
@@ -6559,13 +6560,13 @@
         <v>97.097412878194746</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" s="5">
         <v>366.34104511369765</v>
@@ -6580,18 +6581,18 @@
         <v>1.1995835295422519</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" s="4">
         <v>35045</v>
@@ -6603,13 +6604,13 @@
         <v>51.313712112569178</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" s="5">
         <v>285.96602115397724</v>
@@ -6624,18 +6625,18 @@
         <v>0.65056815165132109</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="4">
         <v>35045</v>
@@ -6647,13 +6648,13 @@
         <v>110.09764230933339</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="5">
         <v>416.23124842729447</v>
@@ -6668,18 +6669,18 @@
         <v>1.3337766543494196</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="4">
         <v>35045</v>
@@ -6691,13 +6692,13 @@
         <v>88.613346774193559</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" s="5">
         <v>359.64489055299543</v>
@@ -6712,18 +6713,18 @@
         <v>0.98411275259216602</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="4">
         <v>35045</v>
@@ -6735,13 +6736,13 @@
         <v>122.72019435779997</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="5">
         <v>472.67051688909066</v>
@@ -6756,18 +6757,18 @@
         <v>1.6574609545519605</v>
       </c>
       <c r="L77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B78" s="4">
         <v>35045</v>
@@ -6779,13 +6780,13 @@
         <v>68.098358707051318</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="5">
         <v>333.92195637586883</v>
@@ -6800,18 +6801,18 @@
         <v>0.92554208796037085</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="4">
         <v>35045</v>
@@ -6823,13 +6824,13 @@
         <v>75.046687038451751</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="5">
         <v>374.97846872082164</v>
@@ -6844,18 +6845,18 @@
         <v>1.0251930095917152</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="4">
         <v>35045</v>
@@ -6867,13 +6868,13 @@
         <v>142.66416818338661</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="5">
         <v>527.41522690217755</v>
@@ -6888,18 +6889,18 @@
         <v>1.9379382299878576</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="4">
         <v>35045</v>
@@ -6911,13 +6912,13 @@
         <v>92.962070245463849</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H81" s="5">
         <v>341.25904790369134</v>
@@ -6932,18 +6933,18 @@
         <v>1.1804261427100007</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B82" s="4">
         <v>35045</v>
@@ -6955,13 +6956,13 @@
         <v>55.691430873076882</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82" s="5">
         <v>280.43035971904845</v>
@@ -6976,18 +6977,18 @@
         <v>0.62114615134315465</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="4">
         <v>35045</v>
@@ -6999,13 +7000,13 @@
         <v>63.411839441800453</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="5">
         <v>290.92260957519409</v>
@@ -7020,18 +7021,18 @@
         <v>0.77543800534782725</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" s="4">
         <v>35045</v>
@@ -7043,13 +7044,13 @@
         <v>95.766316719663081</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="5">
         <v>368.1745198400489</v>
@@ -7064,18 +7065,18 @@
         <v>1.0609939846202567</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="4">
         <v>35045</v>
@@ -7087,13 +7088,13 @@
         <v>69.01916122458826</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" s="5">
         <v>257.87790998646221</v>
@@ -7108,18 +7109,18 @@
         <v>0.76925728182728959</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86" s="4">
         <v>35045</v>
@@ -7131,13 +7132,13 @@
         <v>91.21244763614601</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86" s="5">
         <v>314.90045738223472</v>
@@ -7152,18 +7153,18 @@
         <v>0.93290593912969144</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B87" s="4">
         <v>35045</v>
@@ -7175,13 +7176,13 @@
         <v>97.772619047619045</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87" s="5">
         <v>348.37167919799498</v>
@@ -7196,18 +7197,18 @@
         <v>1.3312113298872179</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" s="4">
         <v>35045</v>
@@ -7219,13 +7220,13 @@
         <v>109.70860425757515</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H88" s="5">
         <v>334.46203254353412</v>
@@ -7240,18 +7241,18 @@
         <v>1.5394605378145263</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="4">
         <v>35045</v>
@@ -7263,13 +7264,13 @@
         <v>138.71580401652187</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89" s="5">
         <v>406.45413046574561</v>
@@ -7284,18 +7285,18 @@
         <v>1.7336396551773252</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90" s="4">
         <v>35051</v>
@@ -7310,10 +7311,10 @@
         <v>84.157159234961824</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" s="5">
         <v>380.4937245344039</v>
@@ -7328,18 +7329,18 @@
         <v>1.1299585764114619</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N90" s="5">
         <v>456.92811855232037</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" s="4">
         <v>35051</v>
@@ -7354,10 +7355,10 @@
         <v>101.7879895108035</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H91" s="5">
         <v>465.0801248585575</v>
@@ -7372,18 +7373,18 @@
         <v>1.5991889590131054</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N91" s="5">
         <v>540.94477605685233</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="4">
         <v>35051</v>
@@ -7398,10 +7399,10 @@
         <v>120.15069295574136</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" s="5">
         <v>522.54198714996653</v>
@@ -7416,18 +7417,18 @@
         <v>1.7563565328964417</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N92" s="5">
         <v>552.52268322460418</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" s="4">
         <v>35051</v>
@@ -7442,10 +7443,10 @@
         <v>115.28250482292883</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" s="5">
         <v>523.72224911412684</v>
@@ -7460,18 +7461,18 @@
         <v>2.1987197387251793</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N93" s="5">
         <v>615.84140457426338</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="4">
         <v>35051</v>
@@ -7486,10 +7487,10 @@
         <v>88.498050542822455</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H94" s="5">
         <v>376.0719503274928</v>
@@ -7504,18 +7505,18 @@
         <v>1.1249878406355061</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N94" s="5">
         <v>452.76887361654104</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" s="4">
         <v>35051</v>
@@ -7530,10 +7531,10 @@
         <v>89.511727436232817</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H95" s="5">
         <v>473.38359221713529</v>
@@ -7548,18 +7549,18 @@
         <v>1.8021392756703727</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N95" s="5">
         <v>455.21664486592545</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B96" s="4">
         <v>35051</v>
@@ -7574,10 +7575,10 @@
         <v>110.58858500482907</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96" s="5">
         <v>506.30710708066761</v>
@@ -7592,18 +7593,18 @@
         <v>1.8493201493896527</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N96" s="5">
         <v>593.18543775490423</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" s="4">
         <v>35051</v>
@@ -7618,10 +7619,10 @@
         <v>122.16941805305837</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H97" s="5">
         <v>579.56000715657535</v>
@@ -7636,18 +7637,18 @@
         <v>2.8475962750233448</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N97" s="5">
         <v>628.02142506213966</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" s="4">
         <v>35051</v>
@@ -7662,10 +7663,10 @@
         <v>69.102701176178499</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H98" s="5">
         <v>350.14246531980262</v>
@@ -7680,18 +7681,18 @@
         <v>1.1053048177543989</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N98" s="5">
         <v>448.64753436986001</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="4">
         <v>35051</v>
@@ -7706,10 +7707,10 @@
         <v>101.07980646292664</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99" s="5">
         <v>448.26848852966032</v>
@@ -7724,18 +7725,18 @@
         <v>1.6316844550990801</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N99" s="5">
         <v>581.2884085003268</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" s="4">
         <v>35051</v>
@@ -7750,10 +7751,10 @@
         <v>114.20336552531461</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H100" s="5">
         <v>563.84758722726235</v>
@@ -7768,18 +7769,18 @@
         <v>2.6112975582057039</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N100" s="5">
         <v>552.73810685136414</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B101" s="4">
         <v>35051</v>
@@ -7794,10 +7795,10 @@
         <v>94.123561273561791</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H101" s="5">
         <v>493.98296385058364</v>
@@ -7812,18 +7813,18 @@
         <v>2.4851829182122724</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N101" s="5">
         <v>502.36414292099965</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" s="4">
         <v>35051</v>
@@ -7838,10 +7839,10 @@
         <v>70.258861895714659</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102" s="5">
         <v>367.94003206286573</v>
@@ -7856,18 +7857,18 @@
         <v>1.3857516335037832</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N102" s="5">
         <v>460.31221693505586</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" s="4">
         <v>35051</v>
@@ -7882,10 +7883,10 @@
         <v>62.540661384654875</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H103" s="5">
         <v>335.43029066096835</v>
@@ -7900,18 +7901,18 @@
         <v>1.1934727107196628</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N103" s="5">
         <v>407.30927173453034</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" s="4">
         <v>35051</v>
@@ -7926,10 +7927,10 @@
         <v>95.887257278415262</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" s="5">
         <v>471.45362279058884</v>
@@ -7944,18 +7945,18 @@
         <v>1.8554025479390668</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N104" s="5">
         <v>607.77023204375291</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" s="4">
         <v>35051</v>
@@ -7970,10 +7971,10 @@
         <v>87.291814440416061</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H105" s="5">
         <v>422.41721337926066</v>
@@ -7988,18 +7989,18 @@
         <v>1.9055162811613837</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N105" s="5">
         <v>576.41754928686487</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" s="4">
         <v>35051</v>
@@ -8014,10 +8015,10 @@
         <v>76.34376868204231</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H106" s="5">
         <v>408.76747807599128</v>
@@ -8032,18 +8033,18 @@
         <v>1.8203530379529202</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N106" s="5">
         <v>490.78137009884347</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107" s="4">
         <v>35051</v>
@@ -8058,10 +8059,10 @@
         <v>59.691028294701546</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107" s="5">
         <v>453.28154268055232</v>
@@ -8076,18 +8077,18 @@
         <v>2.3961529315403349</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N107" s="5">
         <v>358.8624689475235</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108" s="4">
         <v>35051</v>
@@ -8102,10 +8103,10 @@
         <v>100.00991692064046</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108" s="5">
         <v>543.75511367475474</v>
@@ -8120,18 +8121,18 @@
         <v>2.9729150753356781</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N108" s="5">
         <v>616.312902223945</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B109" s="4">
         <v>35051</v>
@@ -8146,10 +8147,10 @@
         <v>81.413180995549709</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109" s="5">
         <v>543.68067153215816</v>
@@ -8164,18 +8165,18 @@
         <v>3.1223477070703645</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N109" s="5">
         <v>453.19865383083038</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" s="4">
         <v>35060</v>
@@ -8190,10 +8191,10 @@
         <v>181.78384347425651</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H110" s="5">
         <v>577.03174200560534</v>
@@ -8208,18 +8209,18 @@
         <v>0.86156235306059803</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" s="4">
         <v>35060</v>
@@ -8234,10 +8235,10 @@
         <v>244.48311124244321</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" s="5">
         <v>661.67651652912446</v>
@@ -8252,18 +8253,18 @@
         <v>1.1736774989347838</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B112" s="4">
         <v>35060</v>
@@ -8278,10 +8279,10 @@
         <v>252.71260437488064</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H112" s="5">
         <v>681.10395687702453</v>
@@ -8296,18 +8297,18 @@
         <v>1.2761383051722157</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113" s="4">
         <v>35060</v>
@@ -8322,10 +8323,10 @@
         <v>254.99792910733424</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H113" s="5">
         <v>749.03717321601744</v>
@@ -8340,18 +8341,18 @@
         <v>1.5773985774802954</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="4">
         <v>35060</v>
@@ -8366,10 +8367,10 @@
         <v>143.25258872012668</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114" s="5">
         <v>444.47208825223152</v>
@@ -8384,18 +8385,18 @@
         <v>0.64039748146415199</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B115" s="4">
         <v>35060</v>
@@ -8410,10 +8411,10 @@
         <v>247.7534733971026</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115" s="5">
         <v>783.11946975287651</v>
@@ -8428,18 +8429,18 @@
         <v>2.1021894250890014</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="4">
         <v>35060</v>
@@ -8454,10 +8455,10 @@
         <v>254.7645886719647</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H116" s="5">
         <v>779.98015326255825</v>
@@ -8472,18 +8473,18 @@
         <v>2.1216933455551361</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117" s="4">
         <v>35060</v>
@@ -8498,10 +8499,10 @@
         <v>237.08294831932139</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" s="5">
         <v>778.68161102138765</v>
@@ -8516,18 +8517,18 @@
         <v>2.6004198730623518</v>
       </c>
       <c r="L117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N117" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B118" s="4">
         <v>35060</v>
@@ -8542,10 +8543,10 @@
         <v>171.16491803296344</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H118" s="5">
         <v>512.86317258050326</v>
@@ -8560,18 +8561,18 @@
         <v>0.64268862193668508</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="4">
         <v>35060</v>
@@ -8586,10 +8587,10 @@
         <v>245.61576804013905</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119" s="5">
         <v>739.49817976211421</v>
@@ -8604,18 +8605,18 @@
         <v>1.3189030847297629</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" s="4">
         <v>35060</v>
@@ -8630,10 +8631,10 @@
         <v>307.20306698006709</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H120" s="5">
         <v>949.30398675845868</v>
@@ -8648,18 +8649,18 @@
         <v>2.372536157650833</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B121" s="4">
         <v>35060</v>
@@ -8674,10 +8675,10 @@
         <v>269.9379340670975</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" s="5">
         <v>815.04003357687907</v>
@@ -8692,18 +8693,18 @@
         <v>1.8692038251576659</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122" s="4">
         <v>35060</v>
@@ -8718,10 +8719,10 @@
         <v>121.94513975494861</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122" s="5">
         <v>461.08413820244425</v>
@@ -8736,18 +8737,18 @@
         <v>0.89532147908551973</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B123" s="4">
         <v>35060</v>
@@ -8762,10 +8763,10 @@
         <v>155.13918441977222</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H123" s="5">
         <v>574.00797436290895</v>
@@ -8780,18 +8781,18 @@
         <v>1.212599948129305</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B124" s="4">
         <v>35060</v>
@@ -8806,10 +8807,10 @@
         <v>179.86797703079799</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124" s="5">
         <v>648.58023719402354</v>
@@ -8824,18 +8825,18 @@
         <v>1.4238396928441115</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" s="4">
         <v>35060</v>
@@ -8850,10 +8851,10 @@
         <v>156.95361911691955</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125" s="5">
         <v>593.42341681990979</v>
@@ -8868,18 +8869,18 @@
         <v>1.3194688706515492</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B126" s="4">
         <v>35060</v>
@@ -8894,10 +8895,10 @@
         <v>126.90734158862547</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H126" s="5">
         <v>607.21388963820823</v>
@@ -8912,18 +8913,18 @@
         <v>1.5728941520386361</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B127" s="4">
         <v>35060</v>
@@ -8938,10 +8939,10 @@
         <v>149.26690176429474</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H127" s="5">
         <v>614.65430519088011</v>
@@ -8956,18 +8957,18 @@
         <v>2.0018395786305936</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B128" s="4">
         <v>35060</v>
@@ -8982,10 +8983,10 @@
         <v>220.78981172246807</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H128" s="5">
         <v>875.48152291892802</v>
@@ -9000,18 +9001,18 @@
         <v>2.7055321971278286</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B129" s="4">
         <v>35060</v>
@@ -9026,10 +9027,10 @@
         <v>160.98273111357616</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H129" s="5">
         <v>783.02193086141369</v>
@@ -9044,18 +9045,18 @@
         <v>3.2922173804198263</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B130" s="4">
         <v>35069</v>
@@ -9088,18 +9089,18 @@
         <v>0.60415910389379635</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B131" s="4">
         <v>35069</v>
@@ -9132,18 +9133,18 @@
         <v>0.64840383153193093</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B132" s="4">
         <v>35069</v>
@@ -9176,18 +9177,18 @@
         <v>0.7221149262934623</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B133" s="4">
         <v>35069</v>
@@ -9220,18 +9221,18 @@
         <v>0.87543940054578984</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" s="4">
         <v>35069</v>
@@ -9264,18 +9265,18 @@
         <v>0.52411059202096233</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B135" s="4">
         <v>35069</v>
@@ -9308,18 +9309,18 @@
         <v>1.2782931324438609</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B136" s="4">
         <v>35069</v>
@@ -9352,18 +9353,18 @@
         <v>1.3400622260076656</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B137" s="4">
         <v>35069</v>
@@ -9396,18 +9397,18 @@
         <v>2.0263335908007187</v>
       </c>
       <c r="L137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M137" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N137" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B138" s="4">
         <v>35069</v>
@@ -9440,18 +9441,18 @@
         <v>0.21477571596047562</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B139" s="4">
         <v>35069</v>
@@ -9484,18 +9485,18 @@
         <v>0.76556279803249971</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B140" s="4">
         <v>35069</v>
@@ -9528,18 +9529,18 @@
         <v>1.4630575727903954</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141" s="4">
         <v>35069</v>
@@ -9572,18 +9573,18 @@
         <v>1.2438587218159824</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142" s="4">
         <v>35069</v>
@@ -9616,18 +9617,18 @@
         <v>0.64316459711449969</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B143" s="4">
         <v>35069</v>
@@ -9660,18 +9661,18 @@
         <v>0.6902967367879369</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B144" s="4">
         <v>35069</v>
@@ -9704,18 +9705,18 @@
         <v>0.94585629865454479</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B145" s="4">
         <v>35069</v>
@@ -9748,18 +9749,18 @@
         <v>1.0247150787381281</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B146" s="4">
         <v>35069</v>
@@ -9792,18 +9793,18 @@
         <v>1.0090769748902839</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N146" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B147" s="4">
         <v>35069</v>
@@ -9836,18 +9837,18 @@
         <v>1.7942566843639334</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" s="4">
         <v>35069</v>
@@ -9880,18 +9881,18 @@
         <v>2.5816757711575855</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B149" s="4">
         <v>35069</v>
@@ -9924,62 +9925,62 @@
         <v>2.8451433566241011</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B150" s="4">
         <v>35079</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N150" s="5">
         <v>595</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B151" s="4">
         <v>35079</v>
@@ -9994,10 +9995,10 @@
         <v>602.75339097237827</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H151" s="5">
         <v>872.76208174264536</v>
@@ -10012,18 +10013,18 @@
         <v>4.8770042667864361E-2</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N151" s="5">
         <v>555</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B152" s="4">
         <v>35079</v>
@@ -10038,10 +10039,10 @@
         <v>634.84086561393121</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H152" s="5">
         <v>945.57046413502098</v>
@@ -10056,18 +10057,18 @@
         <v>7.7285701106360155E-2</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N152" s="5">
         <v>765</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="4">
         <v>35079</v>
@@ -10082,10 +10083,10 @@
         <v>572.75740298727692</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H153" s="5">
         <v>836.88565687770438</v>
@@ -10100,18 +10101,18 @@
         <v>9.5442746639439247E-2</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N153" s="5">
         <v>612.5</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" s="4">
         <v>35079</v>
@@ -10126,10 +10127,10 @@
         <v>371.6592616895889</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H154" s="5">
         <v>600.7021009357702</v>
@@ -10144,18 +10145,18 @@
         <v>0.34638103868004461</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N154" s="5">
         <v>477.5</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B155" s="4">
         <v>35079</v>
@@ -10170,10 +10171,10 @@
         <v>627.76662692782975</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H155" s="5">
         <v>943.24945998709586</v>
@@ -10188,18 +10189,18 @@
         <v>0.49060711012412062</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N155" s="5">
         <v>665</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B156" s="4">
         <v>35079</v>
@@ -10214,10 +10215,10 @@
         <v>700.73266640358884</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156" s="5">
         <v>1067.0911221431172</v>
@@ -10232,18 +10233,18 @@
         <v>0.74178456322252706</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N156" s="5">
         <v>925</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B157" s="4">
         <v>35079</v>
@@ -10258,10 +10259,10 @@
         <v>647.11807853589767</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H157" s="5">
         <v>1059.8332416713167</v>
@@ -10276,18 +10277,18 @@
         <v>1.0668405179830209</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N157" s="5">
         <v>807.5</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B158" s="4">
         <v>35079</v>
@@ -10302,10 +10303,10 @@
         <v>353.85061500308956</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H158" s="5">
         <v>529.50626168941312</v>
@@ -10320,18 +10321,18 @@
         <v>2.8443769993820943E-2</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N158" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159" s="4">
         <v>35079</v>
@@ -10346,10 +10347,10 @@
         <v>513.48655737704917</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H159" s="5">
         <v>756.76056120617432</v>
@@ -10364,18 +10365,18 @@
         <v>7.9201236887240248E-2</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N159" s="5">
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160" s="4">
         <v>35079</v>
@@ -10390,10 +10391,10 @@
         <v>720.36854109419346</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H160" s="5">
         <v>1053.0746545452498</v>
@@ -10408,18 +10409,18 @@
         <v>0.1914668003063201</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N160" s="5">
         <v>922.5</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B161" s="4">
         <v>35079</v>
@@ -10434,10 +10435,10 @@
         <v>690.55525190023843</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H161" s="5">
         <v>1010.2107613575005</v>
@@ -10452,18 +10453,18 @@
         <v>0.12600730601417212</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N161" s="5">
         <v>772.5</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B162" s="4">
         <v>35079</v>
@@ -10478,10 +10479,10 @@
         <v>395.58670384279066</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H162" s="5">
         <v>614.34489573248811</v>
@@ -10496,18 +10497,18 @@
         <v>9.7870136004497038E-2</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N162" s="5">
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163" s="4">
         <v>35079</v>
@@ -10522,10 +10523,10 @@
         <v>510.9936828612262</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H163" s="5">
         <v>781.1952086168269</v>
@@ -10540,18 +10541,18 @@
         <v>0.16468344434485441</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N163" s="5">
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B164" s="4">
         <v>35079</v>
@@ -10566,10 +10567,10 @@
         <v>590.53295650257041</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H164" s="5">
         <v>883.99862602012581</v>
@@ -10584,18 +10585,18 @@
         <v>0.21027110022437168</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N164" s="5">
         <v>675</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B165" s="4">
         <v>35079</v>
@@ -10610,10 +10611,10 @@
         <v>585.63261990231558</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H165" s="5">
         <v>876.72471763118517</v>
@@ -10628,18 +10629,18 @@
         <v>0.26459059546997032</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N165" s="5">
         <v>700</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B166" s="4">
         <v>35079</v>
@@ -10654,10 +10655,10 @@
         <v>492.87110963831321</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H166" s="5">
         <v>841.27712072673944</v>
@@ -10672,18 +10673,18 @@
         <v>0.67443354361387153</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N166" s="5">
         <v>612.5</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B167" s="4">
         <v>35079</v>
@@ -10698,10 +10699,10 @@
         <v>726.80765551433228</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H167" s="5">
         <v>1236.8256384922647</v>
@@ -10716,18 +10717,18 @@
         <v>1.43527095560815</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N167" s="5">
         <v>902.5</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B168" s="4">
         <v>35079</v>
@@ -10742,10 +10743,10 @@
         <v>753.58980728340589</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H168" s="5">
         <v>1339.1209846922511</v>
@@ -10760,18 +10761,18 @@
         <v>2.027324389283808</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N168" s="5">
         <v>960</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B169" s="4">
         <v>35079</v>
@@ -10786,10 +10787,10 @@
         <v>647.26161189464096</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H169" s="5">
         <v>1170.1427088546623</v>
@@ -10804,18 +10805,18 @@
         <v>1.7947583327874579</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N169" s="5">
         <v>982.5</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B170" s="4">
         <v>35088</v>
@@ -10824,7 +10825,7 @@
         <v>213.173636394206</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E170" s="5">
         <v>462.19563318058704</v>
@@ -10845,7 +10846,7 @@
         <v>736.28959453650737</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L170" s="5">
         <v>3.6289547288211564E-2</v>
@@ -10857,12 +10858,12 @@
         <v>542.5</v>
       </c>
       <c r="O170" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B171" s="4">
         <v>35088</v>
@@ -10871,7 +10872,7 @@
         <v>217.21917985263036</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E171" s="5">
         <v>524.56914550941349</v>
@@ -10892,7 +10893,7 @@
         <v>817.36669677269219</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L171" s="5">
         <v>3.6350949175481706E-2</v>
@@ -10904,12 +10905,12 @@
         <v>590</v>
       </c>
       <c r="O171" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B172" s="4">
         <v>35088</v>
@@ -10918,7 +10919,7 @@
         <v>304.37516456431831</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E172" s="5">
         <v>739.35996119401716</v>
@@ -10939,7 +10940,7 @@
         <v>1135.3623695445883</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L172" s="5">
         <v>3.5462391151830294E-2</v>
@@ -10951,12 +10952,12 @@
         <v>782.5</v>
       </c>
       <c r="O172" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B173" s="4">
         <v>35088</v>
@@ -10965,7 +10966,7 @@
         <v>264.82474904575986</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E173" s="5">
         <v>622.82608004897452</v>
@@ -10986,7 +10987,7 @@
         <v>978.10901000266244</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L173" s="5">
         <v>3.4681781420665719E-2</v>
@@ -10998,12 +10999,12 @@
         <v>660</v>
       </c>
       <c r="O173" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B174" s="4">
         <v>35088</v>
@@ -11045,9 +11046,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B175" s="4">
         <v>35088</v>
@@ -11089,9 +11090,9 @@
         <v>737.5</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B176" s="4">
         <v>35088</v>
@@ -11100,7 +11101,7 @@
         <v>293.02061125246394</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E176" s="5">
         <v>746.49887540234249</v>
@@ -11133,9 +11134,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B177" s="4">
         <v>35088</v>
@@ -11177,9 +11178,9 @@
         <v>987.5</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178" s="4">
         <v>35088</v>
@@ -11188,7 +11189,7 @@
         <v>203.51078593480906</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E178" s="5">
         <v>406.64081916017614</v>
@@ -11209,7 +11210,7 @@
         <v>670.74635561479374</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L178" s="5">
         <v>3.6836187760920479E-2</v>
@@ -11221,12 +11222,12 @@
         <v>495</v>
       </c>
       <c r="O178" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B179" s="4">
         <v>35088</v>
@@ -11235,7 +11236,7 @@
         <v>253.32456372819456</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E179" s="5">
         <v>571.84211525598676</v>
@@ -11256,7 +11257,7 @@
         <v>899.95947440895839</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L179" s="5">
         <v>3.7285140562248999E-2</v>
@@ -11268,12 +11269,12 @@
         <v>620</v>
       </c>
       <c r="O179" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B180" s="4">
         <v>35088</v>
@@ -11282,7 +11283,7 @@
         <v>348.48615229740795</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E180" s="5">
         <v>743.59794607087065</v>
@@ -11303,7 +11304,7 @@
         <v>1191.1617058498164</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L180" s="5">
         <v>3.5064783733826252E-2</v>
@@ -11315,12 +11316,12 @@
         <v>665</v>
       </c>
       <c r="O180" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B181" s="4">
         <v>35088</v>
@@ -11329,7 +11330,7 @@
         <v>298.24106693083183</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E181" s="5">
         <v>617.07678404165176</v>
@@ -11350,7 +11351,7 @@
         <v>1012.5280870874537</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L181" s="5">
         <v>3.5520600130463154E-2</v>
@@ -11362,12 +11363,12 @@
         <v>720</v>
       </c>
       <c r="O181" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B182" s="4">
         <v>35088</v>
@@ -11376,7 +11377,7 @@
         <v>194.89848868787448</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E182" s="5">
         <v>400.86483532335257</v>
@@ -11397,7 +11398,7 @@
         <v>657.71881809024273</v>
       </c>
       <c r="K182" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L182" s="5">
         <v>3.4657465101676083E-2</v>
@@ -11409,12 +11410,12 @@
         <v>497.5</v>
       </c>
       <c r="O182" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B183" s="4">
         <v>35088</v>
@@ -11423,7 +11424,7 @@
         <v>215.39730439435471</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E183" s="5">
         <v>457.54378017556644</v>
@@ -11444,7 +11445,7 @@
         <v>744.9962332431611</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L183" s="5">
         <v>3.7515032679738561E-2</v>
@@ -11456,12 +11457,12 @@
         <v>495</v>
       </c>
       <c r="O183" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B184" s="4">
         <v>35088</v>
@@ -11470,7 +11471,7 @@
         <v>230.95979996914102</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184" s="5">
         <v>576.08309225155972</v>
@@ -11503,12 +11504,12 @@
         <v>595</v>
       </c>
       <c r="O184" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B185" s="4">
         <v>35088</v>
@@ -11517,7 +11518,7 @@
         <v>242.31693707012465</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E185" s="5">
         <v>567.23453881997739</v>
@@ -11538,7 +11539,7 @@
         <v>898.19840310846632</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L185" s="5">
         <v>3.6478022783387055E-2</v>
@@ -11550,12 +11551,12 @@
         <v>640</v>
       </c>
       <c r="O185" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B186" s="4">
         <v>35088</v>
@@ -11597,9 +11598,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B187" s="4">
         <v>35088</v>
@@ -11641,9 +11642,9 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B188" s="4">
         <v>35088</v>
@@ -11685,9 +11686,9 @@
         <v>1042.5</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B189" s="4">
         <v>35088</v>
@@ -11729,9 +11730,9 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" s="4">
         <v>35102</v>
@@ -11740,7 +11741,7 @@
         <v>284.74195540623748</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E190" s="5">
         <v>646.79608923924513</v>
@@ -11761,7 +11762,7 @@
         <v>1006.9875317512602</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L190" s="5">
         <v>3.7564143302180691E-2</v>
@@ -11773,12 +11774,12 @@
         <v>667.5</v>
       </c>
       <c r="O190" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B191" s="4">
         <v>35102</v>
@@ -11787,7 +11788,7 @@
         <v>341.54576403827315</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E191" s="5">
         <v>842.03664492747862</v>
@@ -11808,7 +11809,7 @@
         <v>1285.720622583852</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L191" s="5">
         <v>3.8585783664459167E-2</v>
@@ -11820,12 +11821,12 @@
         <v>822.5</v>
       </c>
       <c r="O191" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B192" s="4">
         <v>35102</v>
@@ -11834,7 +11835,7 @@
         <v>378.02569397652451</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E192" s="5">
         <v>1011.8679915694621</v>
@@ -11855,7 +11856,7 @@
         <v>1488.0959047691676</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L192" s="5">
         <v>4.103255813953488E-2</v>
@@ -11867,12 +11868,12 @@
         <v>910</v>
       </c>
       <c r="O192" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B193" s="4">
         <v>35102</v>
@@ -11881,7 +11882,7 @@
         <v>335.26446413375947</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E193" s="5">
         <v>928.57624957580549</v>
@@ -11902,7 +11903,7 @@
         <v>1352.4663531843994</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L193" s="5">
         <v>3.8095124811526215E-2</v>
@@ -11914,12 +11915,12 @@
         <v>915</v>
       </c>
       <c r="O193" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B194" s="4">
         <v>35107</v>
@@ -11928,7 +11929,7 @@
         <v>188.28427506798971</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E194" s="5">
         <v>392.66706825623993</v>
@@ -11949,7 +11950,7 @@
         <v>640.89123824465298</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L194" s="5">
         <v>3.5677866323907459E-2</v>
@@ -11961,12 +11962,12 @@
         <v>470</v>
       </c>
       <c r="O194" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B195" s="4">
         <v>35107</v>
@@ -11975,7 +11976,7 @@
         <v>266.69050016723833</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E195" s="5">
         <v>718.30195459014726</v>
@@ -11996,7 +11997,7 @@
         <v>1080.0101793805686</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L195" s="5">
         <v>4.1348677792041079E-2</v>
@@ -12008,12 +12009,12 @@
         <v>630</v>
       </c>
       <c r="O195" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B196" s="4">
         <v>35107</v>
@@ -12022,7 +12023,7 @@
         <v>299.06138675181944</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E196" s="5">
         <v>792.47812031254409</v>
@@ -12043,7 +12044,7 @@
         <v>1191.602992696904</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L196" s="5">
         <v>4.1813824309564672E-2</v>
@@ -12055,12 +12056,12 @@
         <v>772.5</v>
       </c>
       <c r="O196" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B197" s="4">
         <v>35107</v>
@@ -12069,7 +12070,7 @@
         <v>315.85091671845873</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E197" s="5">
         <v>860.91444078761515</v>
@@ -12090,7 +12091,7 @@
         <v>1285.7095704559581</v>
       </c>
       <c r="K197" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L197" s="5">
         <v>3.8567456361075503E-2</v>
@@ -12102,7 +12103,7 @@
         <v>800</v>
       </c>
       <c r="O197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
